--- a/evaluation/results/isolation_forest/augmented/noise_2/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_2/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9252669039145908</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="C2">
-        <v>0.325</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="D2">
-        <v>0.4642857142857143</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.3823529411764706</v>
+        <v>0.09491525423728814</v>
       </c>
       <c r="F2">
-        <v>0.4276315789473684</v>
+        <v>0.2077151335311573</v>
       </c>
       <c r="G2">
-        <v>0.4567567567567568</v>
+        <v>0.5768621236133122</v>
       </c>
       <c r="H2">
-        <v>0.7068619582664527</v>
+        <v>0.8297217763509899</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>534</v>
       </c>
       <c r="K2">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9712643678160919</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.949438202247191</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9602272727272727</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.325</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="C3">
-        <v>0.4642857142857143</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3823529411764706</v>
+        <v>0.09491525423728814</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9252669039145908</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="C4">
-        <v>0.9252669039145908</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="D4">
-        <v>0.9252669039145908</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="E4">
-        <v>0.9252669039145908</v>
+        <v>0.0498220640569395</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6481321839080459</v>
+        <v>0.02491103202846975</v>
       </c>
       <c r="C5">
-        <v>0.7068619582664526</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.6712901069518716</v>
+        <v>0.04745762711864407</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9390661430850412</v>
+        <v>0.002482238066893783</v>
       </c>
       <c r="C6">
-        <v>0.9252669039145908</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="D6">
-        <v>0.9314363807638876</v>
+        <v>0.004728873876590867</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
